--- a/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
@@ -1288,7 +1288,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="24.148242" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="24.004689" style="0" customWidth="1"/>
     <x:col min="2" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
